--- a/prac1/prac1handin_2023.xlsx
+++ b/prac1/prac1handin_2023.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\g20c0027\prac1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\g20m4048\prac1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3924CB-07A8-4A1E-B4F2-C6BD07596472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D9124B-D0F2-4D6B-93C1-E0BBB86DFC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t xml:space="preserve">Sieve </t>
   </si>
@@ -95,6 +95,87 @@
   </si>
   <si>
     <t>COD</t>
+  </si>
+  <si>
+    <t>37,376 bytes</t>
+  </si>
+  <si>
+    <t>33,792 bytes</t>
+  </si>
+  <si>
+    <t>36,352 bytes</t>
+  </si>
+  <si>
+    <t>332307 bytes</t>
+  </si>
+  <si>
+    <t>3,137,623 bytes</t>
+  </si>
+  <si>
+    <t>331,090 bytes</t>
+  </si>
+  <si>
+    <t>3,137,114 bytes</t>
+  </si>
+  <si>
+    <t>331,079 bytes</t>
+  </si>
+  <si>
+    <t>331,446 bytes</t>
+  </si>
+  <si>
+    <t>907 bytes</t>
+  </si>
+  <si>
+    <t>257 bytes</t>
+  </si>
+  <si>
+    <t>603 bytes</t>
+  </si>
+  <si>
+    <t>35,840 bytes</t>
+  </si>
+  <si>
+    <t>35,328 bytes</t>
+  </si>
+  <si>
+    <t>532 bytes</t>
+  </si>
+  <si>
+    <t>220 bytes</t>
+  </si>
+  <si>
+    <t>22 bytes</t>
+  </si>
+  <si>
+    <t>Dev-C++.cpp files because C++ IOstream relies on templates which create more inline conde</t>
+  </si>
+  <si>
+    <t>66,560 bytes</t>
+  </si>
+  <si>
+    <t>52,224 bytes</t>
+  </si>
+  <si>
+    <t>66,048 bytes</t>
+  </si>
+  <si>
+    <t>149,504 bytes</t>
+  </si>
+  <si>
+    <t>47,104 bytes</t>
+  </si>
+  <si>
+    <t>148,480 bytes</t>
+  </si>
+  <si>
+    <t>Pascal</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>Because they contain instructions to be used by the loader</t>
   </si>
 </sst>
 </file>
@@ -228,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -267,8 +348,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,7 +689,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,14 +741,14 @@
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="17">
-        <v>33792</v>
-      </c>
-      <c r="E3" s="17">
-        <v>37376</v>
-      </c>
-      <c r="F3" s="17">
-        <v>36352</v>
+      <c r="D3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -682,14 +761,14 @@
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="16">
-        <v>1155</v>
-      </c>
-      <c r="E4" s="16">
-        <v>1859</v>
-      </c>
-      <c r="F4" s="16">
-        <v>1360</v>
+      <c r="D4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -702,14 +781,14 @@
       <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="16">
-        <v>1187</v>
-      </c>
-      <c r="E5" s="16">
-        <v>5225</v>
-      </c>
-      <c r="F5" s="16">
-        <v>4633</v>
+      <c r="D5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -722,14 +801,14 @@
       <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="16">
-        <v>331079</v>
-      </c>
-      <c r="E6" s="16">
-        <v>332307</v>
-      </c>
-      <c r="F6" s="16">
-        <v>331446</v>
+      <c r="D6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -742,14 +821,14 @@
       <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="16">
-        <v>331090</v>
-      </c>
-      <c r="E7" s="16">
-        <v>3137623</v>
-      </c>
-      <c r="F7" s="16">
-        <v>3137114</v>
+      <c r="D7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -762,14 +841,14 @@
       <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="3">
-        <v>257</v>
-      </c>
-      <c r="E8" s="3">
-        <v>907</v>
-      </c>
-      <c r="F8" s="3">
-        <v>603</v>
+      <c r="D8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
@@ -785,14 +864,14 @@
       <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="16">
-        <v>35328</v>
-      </c>
-      <c r="E9" s="16">
-        <v>35840</v>
-      </c>
-      <c r="F9" s="16">
-        <v>35328</v>
+      <c r="D9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -805,9 +884,15 @@
       <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="G10" t="s">
         <v>17</v>
       </c>
@@ -825,6 +910,9 @@
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
@@ -836,35 +924,47 @@
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
     </row>
-    <row r="17" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
     </row>
-    <row r="19" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
